--- a/src/main/resources/datas/TestReport.xlsx
+++ b/src/main/resources/datas/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>时间</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>文件hash:4114741c462c57522e8bbaaaa142710e15125fc7</t>
+  </si>
+  <si>
+    <t>2022/03/14 22:22:36</t>
+  </si>
+  <si>
+    <t>2022/03/14 22:22:50</t>
+  </si>
+  <si>
+    <t>文件hash:377b7403627ef2ca65a1234f747cf885159be068</t>
+  </si>
+  <si>
+    <t>2022/03/14 22:23:00</t>
+  </si>
+  <si>
+    <t>2022/03/14 22:23:12</t>
+  </si>
+  <si>
+    <t>文件hash:378e024cc60e988ffd88af9ad12776fcc64f8963</t>
   </si>
 </sst>
 </file>
@@ -849,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,6 +878,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
@@ -1739,6 +1761,98 @@
         <v>33</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
